--- a/pearson_tables/tp_netherlands_cumul-3-7.xlsx
+++ b/pearson_tables/tp_netherlands_cumul-3-7.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7538759082612411</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5082937336004273</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.516319045743816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.6400048285717743</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.6571332582024237</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6572064987025577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7480440660032747</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7145272198874941</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.7141615762896271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5499243238792806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.6073199918586668</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6469996005871692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6754741787886527</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5878339952410317</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.682276750656568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6120954209595417</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.549671423862236</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5778831153299347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -552,12 +552,14 @@
           <t>ENSO-mei_P</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
       <c r="C8" t="n">
-        <v>0.6353257887714898</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.5770790616347833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -567,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6134817512428477</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6399805771234404</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.6449004572614151</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
